--- a/AlServer/data/product.xlsx
+++ b/AlServer/data/product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Modern 15\Documents\GitHub\AIServer\AlServer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657D2C9-C39B-4001-A3C1-94CA9E96E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A88E45-AEAE-4408-940D-4138EF1EE15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2448" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>TenSanPham</t>
   </si>
@@ -33,83 +33,194 @@
     <t>MaSanPham</t>
   </si>
   <si>
-    <t>25db6ed0-7bee-4cc8-b2a4-8e01fa4f7902</t>
-  </si>
-  <si>
-    <t>Asus Zenbook Flip 13 UX363 OLED (UX363EA-HP726W)</t>
-  </si>
-  <si>
-    <t>f558a881-fdcc-48fb-8108-aef14fe4198b</t>
-  </si>
-  <si>
-    <t>Apple Apple M1, 8 nhân, 8 luồng</t>
-  </si>
-  <si>
-    <t>c7d563c0-cc78-4088-8bd4-0fcbe2952e28</t>
-  </si>
-  <si>
-    <t>HP Victus Gaming 16 AMD (Chính hãng) (4R0V0PA)</t>
-  </si>
-  <si>
-    <t>28704fda-8043-47d6-a8b0-30daa944a041</t>
-  </si>
-  <si>
-    <t>Acer Nitro 5 Tiger Intel Gen 12 (Chính hãng)</t>
-  </si>
-  <si>
-    <t>ce4bcd4f-0958-4d88-8981-f197cc809780</t>
-  </si>
-  <si>
     <t>Dell Inspiron 15 5515 AMD</t>
   </si>
   <si>
-    <t>025c212f-b051-482f-b9b1-e99b30c9368f</t>
-  </si>
-  <si>
-    <t>Lenovo IdeaPad 5 Pro 14 AMD (Chính hãng) (82L700M9VN)</t>
-  </si>
-  <si>
-    <t>61335e86-97a5-4464-b812-cea5d192b1ee</t>
-  </si>
-  <si>
     <t>Dell XPS 15 9510</t>
   </si>
   <si>
-    <t>71d6d977-bd8f-4a1a-80d3-954a536a3b43</t>
-  </si>
-  <si>
-    <t>MSI Morden 15aaaaa</t>
-  </si>
-  <si>
-    <t>d8e3b0cb-6f63-4c78-81c9-f5b85505f532</t>
-  </si>
-  <si>
-    <t>Huawei MateBook 14 2021</t>
-  </si>
-  <si>
-    <t>628e2e56-e7b8-44d4-ba76-de07a35f349a</t>
-  </si>
-  <si>
-    <t>Asus Zenbook Q408UG</t>
-  </si>
-  <si>
-    <t>571536d6-1405-4819-9a63-d7402aa355b8</t>
-  </si>
-  <si>
-    <t>Huawei MateBook D 15 2021</t>
-  </si>
-  <si>
-    <t>a4f2b213-fada-4790-a3ef-912055e1cd74</t>
-  </si>
-  <si>
-    <t>MSI Morden 14</t>
+    <t>ASUS ROG Flow Z13 (GZ301ZC-LD110W)</t>
+  </si>
+  <si>
+    <t>b3002ab2-02a6-429b-996d-7e7de86bc949</t>
+  </si>
+  <si>
+    <t>85064f6e-2136-4872-9ad7-e102b8898f84</t>
+  </si>
+  <si>
+    <t>Acer Aspire 7 Gaming AMD (Chính hãng) (A715-42G-R05G)</t>
+  </si>
+  <si>
+    <t>1a9a9e4f-81a5-4198-9e31-36e9d7440899</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS 15 XE</t>
+  </si>
+  <si>
+    <t>2d9e8b98-7f12-4fd4-a125-381bba204b4b</t>
+  </si>
+  <si>
+    <t>Apple Macbook Air (M1, Late 2020 - Apple Silicon) (MGN63LLA)</t>
+  </si>
+  <si>
+    <t>f87bd39d-9007-46c5-b72d-f959aedaa040</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 5 Pro 14 AMD (Chính hãng) (82L700M9VN)</t>
+  </si>
+  <si>
+    <t>5103f84e-e389-4151-9346-703ca0ddf77a</t>
+  </si>
+  <si>
+    <t>ASUS TUF Dash F15 Intel gen 12 (Chính hãng) (FX517ZC-HN079W)</t>
+  </si>
+  <si>
+    <t>4d93f236-d7e9-4780-8296-4868ffafd0b1</t>
+  </si>
+  <si>
+    <t>Lenovo Yoga Slim 7 Carbon (82L0005AVN)</t>
+  </si>
+  <si>
+    <t>b461f5e1-5a69-42b8-8361-21a8f65359ee</t>
+  </si>
+  <si>
+    <t>GIGABYTE G5 Gaming Laptop (GD-51S1123SO)</t>
+  </si>
+  <si>
+    <t>26e0b8c9-cc77-4290-b2ce-1bbc3dd15052</t>
+  </si>
+  <si>
+    <t>GIGABYTE AERO 16 XE</t>
+  </si>
+  <si>
+    <t>c3c62e3f-25ba-4545-ac30-d09b560b5f46</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Book Pro</t>
+  </si>
+  <si>
+    <t>6171e250-8416-42d7-a156-15314a917250</t>
+  </si>
+  <si>
+    <t>Asus ROG Strix G15 (G513)</t>
+  </si>
+  <si>
+    <t>d45f1f35-378e-4e31-9706-648f021503b9</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook 13s G2 Intel (Chính hãng) (20V900DYVN)</t>
+  </si>
+  <si>
+    <t>675e44cc-65c1-4e24-8a46-a39ab254d88a</t>
+  </si>
+  <si>
+    <t>Dell Precision 15 5560</t>
+  </si>
+  <si>
+    <t>10e971e3-5a3c-4ace-a375-a08b07e3f5bd</t>
+  </si>
+  <si>
+    <t>HP ProBook 440 G8</t>
+  </si>
+  <si>
+    <t>58790e17-4030-48db-87fb-af37ac736473</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 Carbon Gen 9</t>
+  </si>
+  <si>
+    <t>1c2719ab-63bf-40e3-8dff-847f08f2c9fb</t>
+  </si>
+  <si>
+    <t>MSI Morden 15</t>
+  </si>
+  <si>
+    <t>64ba5b18-4859-472e-80c4-920da5e1212a</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3510 Intel Gen 11 (Chính hãng) (7T2YC1)</t>
+  </si>
+  <si>
+    <t>b78abcfd-a442-4ac3-8bad-dd420f906f16</t>
+  </si>
+  <si>
+    <t>ASUS Zenbook Pro 14 Duo OLED</t>
+  </si>
+  <si>
+    <t>3a37b010-3234-4ee2-9963-0290b63c6d02</t>
+  </si>
+  <si>
+    <t>ASUS ZenBook Duo 14 UX482 (UX482EA-KA274T)</t>
+  </si>
+  <si>
+    <t>f51ffa0a-4231-43c3-a811-5d5c9f6e40e3</t>
+  </si>
+  <si>
+    <t>HP ZBook Studio G3</t>
+  </si>
+  <si>
+    <t>5479b05f-c735-43dc-9e3d-0c77170eca64</t>
+  </si>
+  <si>
+    <t>Asus Vivobook 15 Pro OLED (M3500QC-L1388W)</t>
+  </si>
+  <si>
+    <t>f7ab967f-dd45-40c2-8eeb-4ff6ffb2d76d</t>
+  </si>
+  <si>
+    <t>03c249c3-c490-4549-8f0e-6364547989c0</t>
+  </si>
+  <si>
+    <t>Acer Swift 3 14 AMD (SF314-43-R4X3)</t>
+  </si>
+  <si>
+    <t>5fa43e9b-4749-4e80-bc92-d6d5c5168671</t>
+  </si>
+  <si>
+    <t>Acer Nitro 5 Tiger Intel Gen 12 (Chính hãng) (AN515-58-52SP)</t>
+  </si>
+  <si>
+    <t>c82a03be-5167-456c-9df5-b564b7d9954c</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 14 7400 (INS0088956-R0017608-SA)</t>
+  </si>
+  <si>
+    <t>1b01886d-5645-45f1-80dc-8c7f97f5b0df</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad Gaming 3 AMD (Chính hãng) (82K2008VVN)</t>
+  </si>
+  <si>
+    <t>2d6d4afd-5001-40c1-9447-09f0b378b4cc</t>
+  </si>
+  <si>
+    <t>Huawei MateBook 14 AMD</t>
+  </si>
+  <si>
+    <t>5cad240f-e2ed-4405-b1e9-27629330477b</t>
+  </si>
+  <si>
+    <t>b0848574-c227-46e7-98c2-2817f2241224</t>
+  </si>
+  <si>
+    <t>Razer Blade 17 2022</t>
+  </si>
+  <si>
+    <t>a63605fa-bbb9-4ea3-9697-f21fa7485d2a</t>
+  </si>
+  <si>
+    <t>Apple Macbook Air (M1, Late 2020 - Apple Silicon) (MGN63LLA)</t>
+  </si>
+  <si>
+    <t>8b3f31f0-9cd1-4901-a142-00d353bdb388</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +234,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,13 +282,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -447,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B11" sqref="B11:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -461,107 +586,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
